--- a/Base.WebApi/Exports/TimingPost.xlsx
+++ b/Base.WebApi/Exports/TimingPost.xlsx
@@ -12,21 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Nguyễn Hạ</t>
+    <t>string</t>
   </si>
   <si>
-    <t>Post 4</t>
+    <t>4/15/2024 12:00:00 AM</t>
   </si>
   <si>
-    <t>4/11/2024 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>4/11/2024 2:15:13 PM</t>
+    <t>4/15/2024 10:13:56 AM</t>
   </si>
 </sst>
 </file>
@@ -108,16 +105,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
